--- a/output/CodeSystem-OrgTypeCS.xlsx
+++ b/output/CodeSystem-OrgTypeCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-03T08:27:17-05:00</t>
+    <t>2024-01-03T13:33:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-OrgTypeCS.xlsx
+++ b/output/CodeSystem-OrgTypeCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-03T13:33:40-05:00</t>
+    <t>2024-01-04T12:52:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-OrgTypeCS.xlsx
+++ b/output/CodeSystem-OrgTypeCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-04T12:52:42-05:00</t>
+    <t>2024-01-04T13:27:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-OrgTypeCS.xlsx
+++ b/output/CodeSystem-OrgTypeCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-04T13:27:46-05:00</t>
+    <t>2024-01-04T13:45:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-OrgTypeCS.xlsx
+++ b/output/CodeSystem-OrgTypeCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-04T13:45:55-05:00</t>
+    <t>2024-01-04T18:04:41-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-OrgTypeCS.xlsx
+++ b/output/CodeSystem-OrgTypeCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-04T18:04:41-05:00</t>
+    <t>2024-01-04T18:53:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-OrgTypeCS.xlsx
+++ b/output/CodeSystem-OrgTypeCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-04T18:53:48-05:00</t>
+    <t>2024-01-05T09:17:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
